--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F391A01-57BC-4CBF-8541-3A4C74AB7C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BEAA8-1E39-4E9B-A637-1179544EF1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="250">
   <si>
     <t>level_row</t>
   </si>
@@ -699,9 +699,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Agreggated</t>
   </si>
   <si>
     <t>Sensitivity</t>
@@ -1447,16 +1444,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1470,12 +1467,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1488,12 +1485,12 @@
         <v>-2.8687499999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -1506,13 +1503,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1533,15 +1530,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1549,19 +1546,19 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1591,16 +1588,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1624,28 +1621,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1668,19 +1665,19 @@
         <v>218</v>
       </c>
       <c r="I1" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="K1" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="L1" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="47" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>219</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J2" s="7">
         <v>-1.6875000000000001E-4</v>
@@ -1719,7 +1716,7 @@
         <v>3.375E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1739,14 +1736,13 @@
         <v>217</v>
       </c>
       <c r="G3" s="5">
-        <f>main!C30</f>
-        <v>7.5744068399999998E-3</v>
+        <v>7.5067782075000002E-3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>219</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="J3" s="5">
         <v>7.2362636774999994E-3</v>
@@ -1759,7 +1755,7 @@
         <v>6.7628632500000072E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1792,12 +1788,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1842,20 +1838,20 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1872,22 +1868,22 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1914,16 +1910,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1965,19 +1961,19 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2">
         <f>main!C16</f>
@@ -1997,14 +1993,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2016,7 +2012,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2027,7 +2023,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2045,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2071,7 +2067,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2089,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2115,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2137,7 +2133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2170,7 +2166,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2181,7 +2177,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2188,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2203,7 +2199,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2214,7 +2210,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2221,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2236,7 +2232,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2258,7 +2254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2280,7 +2276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +2287,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2313,7 +2309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2401,7 +2397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2436,7 +2432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2468,7 +2464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2492,7 +2488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2508,7 +2504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2556,87 +2552,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2650,22 +2646,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>176</v>
@@ -2688,7 +2684,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -2704,10 +2700,10 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
@@ -2722,10 +2718,10 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="24">
         <v>5</v>
@@ -2737,7 +2733,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="53"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
@@ -2752,24 +2748,24 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="40">
         <v>0</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="41" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
@@ -2782,7 +2778,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
@@ -2797,7 +2793,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
@@ -2812,7 +2808,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
@@ -2825,7 +2821,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
@@ -2840,7 +2836,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
@@ -2855,7 +2851,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
@@ -2870,7 +2866,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
@@ -2879,7 +2875,7 @@
         <v>0.112</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>211</v>
@@ -2887,7 +2883,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
@@ -2900,27 +2896,27 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="24">
         <v>10</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="45">
         <v>6</v>
@@ -2930,7 +2926,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>180</v>
       </c>
@@ -2945,7 +2941,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="51"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
@@ -2954,28 +2950,28 @@
         <v>450</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="51"/>
       <c r="B20" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="36">
         <v>0.02</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>181</v>
       </c>
@@ -2993,10 +2989,10 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
       <c r="B22" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C22" s="34">
         <f>C5/C19</f>
@@ -3007,7 +3003,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
@@ -3021,7 +3017,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
@@ -3037,10 +3033,10 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
       <c r="B25" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C25" s="31">
         <f>C24*C6*C17</f>
@@ -3048,12 +3044,12 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
@@ -3069,7 +3065,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>182</v>
       </c>
@@ -3089,7 +3085,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
@@ -3107,7 +3103,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
@@ -3118,14 +3114,14 @@
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
@@ -3139,14 +3135,14 @@
         <v>216</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="30">
         <f>C25/(10^6)</f>
@@ -3161,10 +3157,10 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C32" s="30">
         <f>C27/C16</f>
@@ -3179,10 +3175,10 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="30">
         <f>C4*C17/1000</f>
@@ -3193,11 +3189,11 @@
         <v>216</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
@@ -3208,14 +3204,14 @@
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>215</v>
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BEAA8-1E39-4E9B-A637-1179544EF1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FBE34-44C8-4269-90A5-91D0FD364531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="-18225" windowWidth="17280" windowHeight="8970" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1444,16 +1444,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>-2.8687499999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1500,16 +1500,16 @@
       </c>
       <c r="E3" s="32">
         <f>main!C31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8259730775000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1530,15 +1530,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1588,16 +1588,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1621,28 +1621,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>3.375E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>6.7628632500000072E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1788,12 +1788,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1841,17 +1841,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1910,16 +1910,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1961,17 +1961,17 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -1993,14 +1993,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2552,87 +2552,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2646,22 +2646,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
@@ -2718,7 +2718,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="17" t="s">
         <v>240</v>
@@ -2733,7 +2733,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
@@ -2748,13 +2748,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
       <c r="B6" s="39" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="40">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
@@ -2765,7 +2765,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
@@ -2778,7 +2778,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
@@ -2793,7 +2793,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
@@ -2808,7 +2808,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
@@ -2821,7 +2821,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
@@ -2836,7 +2836,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
@@ -2851,7 +2851,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="53"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
@@ -2866,7 +2866,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
@@ -2883,7 +2883,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
@@ -2896,7 +2896,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
       <c r="B16" s="17" t="s">
         <v>226</v>
@@ -2911,7 +2911,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>222</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>180</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
@@ -2956,7 +2956,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
       <c r="B20" s="16" t="s">
         <v>223</v>
@@ -2971,7 +2971,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>181</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
       <c r="B22" s="29" t="s">
         <v>224</v>
@@ -3003,7 +3003,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
@@ -3017,7 +3017,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
@@ -3033,14 +3033,14 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
       <c r="B25" s="22" t="s">
         <v>233</v>
       </c>
       <c r="C25" s="31">
         <f>C24*C6*C17</f>
-        <v>0</v>
+        <v>182.59730775000003</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
@@ -3049,7 +3049,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
@@ -3065,7 +3065,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>182</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
@@ -3139,14 +3139,14 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
         <v>232</v>
       </c>
       <c r="C31" s="30">
         <f>C25/(10^6)</f>
-        <v>0</v>
+        <v>1.8259730775000002E-4</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26" t="s">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
       <c r="B32" s="19" t="s">
         <v>228</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="49"/>
       <c r="B33" s="19" t="s">
         <v>241</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3BEAA8-1E39-4E9B-A637-1179544EF1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DEACD0-7355-45A3-90D6-4D2F665BF0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="3990" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -795,10 +795,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="215" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1009,7 +1010,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1121,6 +1122,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="215" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1440,17 +1444,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="56.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,7 +1503,7 @@
       <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="54">
         <f>main!C31</f>
         <v>0</v>
       </c>
@@ -1621,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DEACD0-7355-45A3-90D6-4D2F665BF0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A6FE4-0440-4845-890D-A414D3A8D479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="3990" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="-19440" windowWidth="23775" windowHeight="14940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -788,7 +788,7 @@
     <t>300-600,50</t>
   </si>
   <si>
-    <t>0%-5%,1%</t>
+    <t>0%-2.5%,0.5%</t>
   </si>
 </sst>
 </file>
@@ -799,7 +799,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="215" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1067,9 +1067,6 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,6 +1105,12 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,9 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="215" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1444,21 +1444,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="41.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="56.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1485,12 +1485,12 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="48">
         <f>main!C34</f>
         <v>-2.8687499999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1503,18 +1503,18 @@
       <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="49">
         <f>main!C31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.8259730775000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1535,15 +1535,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1593,16 +1593,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1626,28 +1626,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1669,20 +1669,20 @@
       <c r="H1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="46" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C29</f>
-        <v>-6.7500000000000001E-5</v>
+        <v>-8.4375000000000004E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>219</v>
@@ -1712,16 +1712,17 @@
         <v>247</v>
       </c>
       <c r="J2" s="7">
-        <v>-1.6875000000000001E-4</v>
+        <v>-8.4375000000000004E-5</v>
       </c>
       <c r="K2" s="7">
         <v>0</v>
       </c>
       <c r="L2" s="7">
-        <v>3.375E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>(K2-J2)/5</f>
+        <v>1.6875E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1752,7 +1753,7 @@
       <c r="J3" s="5">
         <v>7.2362636774999994E-3</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <v>7.5744068399999998E-3</v>
       </c>
       <c r="L3" s="5">
@@ -1760,7 +1761,7 @@
         <v>6.7628632500000072E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1779,7 +1780,7 @@
       <c r="F4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <f>main!C33</f>
         <v>0.03</v>
       </c>
@@ -1793,12 +1794,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1846,17 +1847,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1915,16 +1916,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1966,17 +1967,17 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -1998,14 +1999,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2017,7 +2018,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2259,7 +2260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2281,7 +2282,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2557,87 +2558,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2652,21 +2653,21 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2689,8 +2690,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2704,12 +2705,12 @@
         <v>187</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -2723,8 +2724,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
       <c r="B4" s="17" t="s">
         <v>240</v>
       </c>
@@ -2738,8 +2739,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
@@ -2753,29 +2754,29 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="40">
-        <v>0</v>
+      <c r="C6" s="39">
+        <v>0.27</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
         <v>235</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D7" s="24"/>
@@ -2783,8 +2784,8 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
       </c>
@@ -2798,8 +2799,8 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
       </c>
@@ -2813,8 +2814,8 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
       </c>
@@ -2826,8 +2827,8 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
       </c>
@@ -2841,8 +2842,8 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
       </c>
@@ -2856,8 +2857,8 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
       </c>
@@ -2871,8 +2872,8 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
       </c>
@@ -2888,8 +2889,8 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
       </c>
@@ -2901,8 +2902,8 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
       <c r="B16" s="17" t="s">
         <v>226</v>
       </c>
@@ -2916,23 +2917,23 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="44">
         <v>6</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2946,8 +2947,8 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
       </c>
@@ -2961,13 +2962,13 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
       <c r="B20" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="36">
-        <v>0.02</v>
+      <c r="C20" s="35">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>249</v>
@@ -2976,14 +2977,14 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="33">
         <f>C9*1000*C10/C22/C11</f>
         <v>30.740287500000001</v>
       </c>
@@ -2994,12 +2995,12 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
       <c r="B22" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="33">
         <f>C5/C19</f>
         <v>1777.7777777777778</v>
       </c>
@@ -3008,22 +3009,22 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="34">
         <f>C20*C17/C22</f>
-        <v>6.7500000000000001E-5</v>
+        <v>8.4375000000000004E-5</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
       </c>
@@ -3038,14 +3039,14 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
       <c r="B25" s="22" t="s">
         <v>233</v>
       </c>
       <c r="C25" s="31">
         <f>C24*C6*C17</f>
-        <v>0</v>
+        <v>182.59730775000003</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
@@ -3054,8 +3055,8 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="51"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
       </c>
@@ -3070,8 +3071,8 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -3090,8 +3091,8 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
@@ -3108,14 +3109,14 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <f>C23</f>
-        <v>6.7500000000000001E-5</v>
+        <v>8.4375000000000004E-5</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -3126,8 +3127,8 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
       </c>
@@ -3144,14 +3145,14 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
       <c r="B31" s="19" t="s">
         <v>232</v>
       </c>
       <c r="C31" s="30">
         <f>C25/(10^6)</f>
-        <v>0</v>
+        <v>1.8259730775000002E-4</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26" t="s">
@@ -3162,8 +3163,8 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
       <c r="B32" s="19" t="s">
         <v>228</v>
       </c>
@@ -3180,8 +3181,8 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
       <c r="B33" s="19" t="s">
         <v>241</v>
       </c>
@@ -3198,12 +3199,12 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="50"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <f>C15*C17/C22</f>
         <v>-2.8687499999999998E-3</v>
       </c>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="28"/>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A6FE4-0440-4845-890D-A414D3A8D479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86032F02-E0F4-44A8-A13A-D8EBE22BB0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="-19440" windowWidth="23775" windowHeight="14940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -795,11 +795,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1076,9 +1077,6 @@
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,6 +1122,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1486,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <f>main!C34</f>
         <v>-2.8687499999999998E-3</v>
       </c>
@@ -1503,7 +1504,7 @@
       <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <f>main!C31</f>
         <v>1.8259730775000002E-4</v>
       </c>
@@ -1626,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,16 +1670,16 @@
       <c r="H1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>246</v>
       </c>
     </row>
@@ -1703,13 +1704,13 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C29</f>
-        <v>-8.4375000000000004E-5</v>
+        <v>-5.0624999999999997E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>219</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="J2" s="7">
         <v>-8.4375000000000004E-5</v>
@@ -1748,12 +1749,12 @@
         <v>219</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J3" s="5">
         <v>7.2362636774999994E-3</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="46">
         <v>7.5744068399999998E-3</v>
       </c>
       <c r="L3" s="5">
@@ -1780,7 +1781,7 @@
       <c r="F4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="40">
         <f>main!C33</f>
         <v>0.03</v>
       </c>
@@ -2652,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,7 +2692,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2705,12 +2706,12 @@
         <v>187</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -2725,7 +2726,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="17" t="s">
         <v>240</v>
       </c>
@@ -2740,7 +2741,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
@@ -2755,11 +2756,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>0.27</v>
       </c>
       <c r="D6" s="24"/>
@@ -2767,12 +2768,12 @@
         <v>235</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
@@ -2785,7 +2786,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
       </c>
@@ -2800,7 +2801,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
       </c>
@@ -2815,7 +2816,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
       </c>
@@ -2828,7 +2829,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
       </c>
@@ -2843,7 +2844,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
       </c>
@@ -2873,7 +2874,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
       </c>
@@ -2890,7 +2891,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
       </c>
@@ -2903,7 +2904,7 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="17" t="s">
         <v>226</v>
       </c>
@@ -2918,22 +2919,22 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="43">
         <v>6</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2948,7 +2949,7 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
       </c>
@@ -2963,12 +2964,12 @@
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="35">
-        <v>2.5000000000000001E-2</v>
+      <c r="C20" s="54">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>249</v>
@@ -2978,7 +2979,7 @@
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -2996,7 +2997,7 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="29" t="s">
         <v>224</v>
       </c>
@@ -3010,13 +3011,13 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="34">
         <f>C20*C17/C22</f>
-        <v>8.4375000000000004E-5</v>
+        <v>5.0624999999999997E-5</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
@@ -3024,7 +3025,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="22" t="s">
         <v>233</v>
       </c>
@@ -3056,7 +3057,7 @@
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
       </c>
@@ -3072,7 +3073,7 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="49" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -3092,7 +3093,7 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
@@ -3110,13 +3111,13 @@
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <f>C23</f>
-        <v>8.4375000000000004E-5</v>
+        <v>5.0624999999999997E-5</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -3128,7 +3129,7 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
       </c>
@@ -3146,7 +3147,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
         <v>232</v>
       </c>
@@ -3164,7 +3165,7 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="19" t="s">
         <v>228</v>
       </c>
@@ -3182,7 +3183,7 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="19" t="s">
         <v>241</v>
       </c>
@@ -3200,11 +3201,11 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <f>C15*C17/C22</f>
         <v>-2.8687499999999998E-3</v>
       </c>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86032F02-E0F4-44A8-A13A-D8EBE22BB0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF7277-F940-4642-BFDB-61A12064376B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,9 +731,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>WFN: Total water footprint (Mm3/yr) - Green</t>
-  </si>
-  <si>
     <t>Useful life</t>
   </si>
   <si>
@@ -789,6 +786,9 @@
   </si>
   <si>
     <t>0%-2.5%,0.5%</t>
+  </si>
+  <si>
+    <t>Green Water</t>
   </si>
 </sst>
 </file>
@@ -1031,9 +1031,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1109,6 +1106,9 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,8 +1124,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1477,8 +1477,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>230</v>
+      <c r="B2" s="54" t="s">
+        <v>249</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1486,9 +1486,9 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="46">
         <f>main!C34</f>
-        <v>-2.8687499999999998E-3</v>
+        <v>-2.3948125649223825E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1496,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -1504,7 +1504,7 @@
       <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <f>main!C31</f>
         <v>1.8259730775000002E-4</v>
       </c>
@@ -1552,16 +1552,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1670,17 +1670,17 @@
       <c r="H1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="44" t="s">
         <v>245</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1749,12 +1749,12 @@
         <v>219</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J3" s="5">
         <v>7.2362636774999994E-3</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3" s="45">
         <v>7.5744068399999998E-3</v>
       </c>
       <c r="L3" s="5">
@@ -1781,7 +1781,7 @@
       <c r="F4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="39">
         <f>main!C33</f>
         <v>0.03</v>
       </c>
@@ -1878,16 +1878,16 @@
         <v>218</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1980,7 +1980,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2">
         <f>main!C16</f>
@@ -2654,13 +2654,13 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -2668,26 +2668,26 @@
     <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2695,531 +2695,531 @@
       <c r="A2" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>155</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="39" t="s">
-        <v>239</v>
+      <c r="F2" s="17"/>
+      <c r="G2" s="38" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>5</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="B4" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>800000</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="53"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="38">
-        <v>0.27</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="38" t="s">
         <v>235</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="39" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>8.3479305095333606E-2</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="53"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>42.037999999999997</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>0.65</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="53"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>0.5</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>45</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="53"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>0.8</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>0.112</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>-0.85</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="53"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>10</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="42">
         <v>6</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>0.3</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>450</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="48">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="32">
         <f>C9*1000*C10/C22/C11</f>
         <v>30.740287500000001</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <f>C5/C19</f>
         <v>1777.7777777777778</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <f>C20*C17/C22</f>
         <v>5.0624999999999997E-5</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="50"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="30">
         <f>C21*C8/C18</f>
         <v>112.71438750000002</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="50"/>
-      <c r="B25" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="31">
+      <c r="B25" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="30">
         <f>C24*C6*C17</f>
         <v>182.59730775000003</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <f>C24*3600/1000*C17/C12/C13*C14</f>
         <v>7.57440684</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <f>C17*C2/1000</f>
         <v>0.93</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="49"/>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <f>C17*C3/1000</f>
         <v>0.03</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <f>C23</f>
         <v>5.0624999999999997E-5</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" s="20"/>
+      <c r="F29" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <f>C26/1000</f>
         <v>7.5744068399999998E-3</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="20"/>
+      <c r="F30" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
-      <c r="B31" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="30">
+      <c r="B31" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="29">
         <f>C25/(10^6)</f>
         <v>1.8259730775000002E-4</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="29">
         <f>C27/C16</f>
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="49"/>
-      <c r="B33" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="30">
+      <c r="B33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="29">
         <f>C4*C17/1000</f>
         <v>0.03</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="20"/>
+      <c r="F33" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="35">
-        <f>C15*C17/C22</f>
-        <v>-2.8687499999999998E-3</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26" t="s">
+      <c r="C34" s="34">
+        <f>C15*C7*C17/C22</f>
+        <v>-2.3948125649223825E-4</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
+      <c r="B37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCF7277-F940-4642-BFDB-61A12064376B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F2C2F-4BFB-4ECA-B6B7-D4ECFC125B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1109,6 +1109,9 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,9 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1449,17 +1449,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="41.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="56.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1473,11 +1473,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="49" t="s">
         <v>249</v>
       </c>
       <c r="C2" t="s">
@@ -1491,7 +1491,7 @@
         <v>-2.3948125649223825E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1509,13 +1509,13 @@
         <v>1.8259730775000002E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1536,15 +1536,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1594,16 +1594,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1627,28 +1627,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1.6875E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>6.7628632500000072E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1795,12 +1795,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1848,17 +1848,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1917,16 +1917,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1968,17 +1968,17 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -2000,14 +2000,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2559,87 +2559,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2653,22 +2653,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>174</v>
       </c>
@@ -2691,8 +2691,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -2710,8 +2710,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
       <c r="B3" s="16" t="s">
         <v>173</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
       <c r="B4" s="16" t="s">
         <v>239</v>
       </c>
@@ -2740,8 +2740,8 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
       <c r="B5" s="16" t="s">
         <v>189</v>
       </c>
@@ -2755,8 +2755,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
       <c r="B6" s="36" t="s">
         <v>233</v>
       </c>
@@ -2772,8 +2772,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
       <c r="B7" s="16" t="s">
         <v>191</v>
       </c>
@@ -2785,8 +2785,8 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
       <c r="B8" s="16" t="s">
         <v>194</v>
       </c>
@@ -2800,8 +2800,8 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
       <c r="B9" s="16" t="s">
         <v>198</v>
       </c>
@@ -2815,8 +2815,8 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
       <c r="B10" s="16" t="s">
         <v>201</v>
       </c>
@@ -2828,8 +2828,8 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
       <c r="B11" s="16" t="s">
         <v>200</v>
       </c>
@@ -2843,8 +2843,8 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
       <c r="B12" s="16" t="s">
         <v>207</v>
       </c>
@@ -2858,8 +2858,8 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
       <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
@@ -2873,8 +2873,8 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
       <c r="B14" s="16" t="s">
         <v>210</v>
       </c>
@@ -2890,8 +2890,8 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
       <c r="B15" s="16" t="s">
         <v>186</v>
       </c>
@@ -2903,8 +2903,8 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
       <c r="B16" s="16" t="s">
         <v>226</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>222</v>
       </c>
@@ -2933,8 +2933,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2948,8 +2948,8 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
       <c r="B19" s="15" t="s">
         <v>188</v>
       </c>
@@ -2963,8 +2963,8 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
       <c r="B20" s="15" t="s">
         <v>223</v>
       </c>
@@ -2978,8 +2978,8 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="51" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -2996,8 +2996,8 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
       <c r="B22" s="28" t="s">
         <v>224</v>
       </c>
@@ -3010,8 +3010,8 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
       <c r="B23" s="28" t="s">
         <v>185</v>
       </c>
@@ -3024,8 +3024,8 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
       <c r="B24" s="21" t="s">
         <v>204</v>
       </c>
@@ -3040,8 +3040,8 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>232</v>
       </c>
@@ -3056,8 +3056,8 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>206</v>
       </c>
@@ -3072,8 +3072,8 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -3092,8 +3092,8 @@
       </c>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
       <c r="B28" s="18" t="s">
         <v>184</v>
       </c>
@@ -3110,8 +3110,8 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
       <c r="B29" s="18" t="s">
         <v>185</v>
       </c>
@@ -3128,8 +3128,8 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
       <c r="B30" s="18" t="s">
         <v>192</v>
       </c>
@@ -3146,8 +3146,8 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
         <v>231</v>
       </c>
@@ -3164,8 +3164,8 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
       <c r="B32" s="18" t="s">
         <v>228</v>
       </c>
@@ -3182,8 +3182,8 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
       <c r="B33" s="18" t="s">
         <v>240</v>
       </c>
@@ -3200,8 +3200,8 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
       <c r="B34" s="18" t="s">
         <v>193</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F2C2F-4BFB-4ECA-B6B7-D4ECFC125B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BEE688-9DE8-40CB-A5CB-039C2B43F9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1011,7 +1011,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1125,6 +1125,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1449,17 +1452,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="41.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="56.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1488,10 +1491,10 @@
       </c>
       <c r="E2" s="46">
         <f>main!C34</f>
-        <v>-2.3948125649223825E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-2.5504753816423371E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1506,16 +1509,16 @@
       </c>
       <c r="E3" s="47">
         <f>main!C31</f>
-        <v>1.8259730775000002E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.9446613275375006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1536,15 +1539,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1573,13 +1576,13 @@
       </c>
       <c r="C2" s="1">
         <f>main!C27</f>
-        <v>0.93</v>
+        <v>99.045000000000002</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1588,22 +1591,22 @@
       </c>
       <c r="C3" s="1">
         <f>main!C28</f>
-        <v>0.03</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1627,28 +1630,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1704,7 +1707,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C29</f>
-        <v>-5.0624999999999997E-5</v>
+        <v>-5.3915624999999997E-3</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>219</v>
@@ -1723,7 +1726,7 @@
         <v>1.6875E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>6.7628632500000072E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1783,7 +1786,7 @@
       </c>
       <c r="G4" s="39">
         <f>main!C33</f>
-        <v>0.03</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>219</v>
@@ -1795,12 +1798,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1848,17 +1851,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1893,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="F2" s="2">
         <f>main!C32</f>
-        <v>9.2999999999999999E-2</v>
+        <v>9.9045000000000005</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>219</v>
@@ -1917,16 +1920,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1968,17 +1971,17 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -2000,14 +2003,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2206,7 +2209,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2360,7 +2363,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2559,87 +2562,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2653,22 +2656,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>174</v>
       </c>
@@ -2691,7 +2694,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>172</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
       <c r="B3" s="16" t="s">
         <v>173</v>
@@ -2725,7 +2728,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="16" t="s">
         <v>239</v>
@@ -2740,7 +2743,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="16" t="s">
         <v>189</v>
@@ -2755,7 +2758,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="36" t="s">
         <v>233</v>
@@ -2772,7 +2775,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="16" t="s">
         <v>191</v>
@@ -2785,7 +2788,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="16" t="s">
         <v>194</v>
@@ -2800,7 +2803,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="16" t="s">
         <v>198</v>
@@ -2815,7 +2818,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="16" t="s">
         <v>201</v>
@@ -2828,7 +2831,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="16" t="s">
         <v>200</v>
@@ -2843,7 +2846,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="16" t="s">
         <v>207</v>
@@ -2858,7 +2861,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="16" t="s">
         <v>209</v>
@@ -2873,7 +2876,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="16" t="s">
         <v>210</v>
@@ -2890,7 +2893,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="16" t="s">
         <v>186</v>
@@ -2903,7 +2906,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="16" t="s">
         <v>226</v>
@@ -2918,22 +2921,22 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>222</v>
       </c>
       <c r="B17" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="42">
-        <v>6</v>
+      <c r="C17" s="55">
+        <v>639</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>180</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
       <c r="B19" s="15" t="s">
         <v>188</v>
@@ -2963,7 +2966,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="52"/>
       <c r="B20" s="15" t="s">
         <v>223</v>
@@ -2978,7 +2981,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>181</v>
       </c>
@@ -2996,7 +2999,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
       <c r="B22" s="28" t="s">
         <v>224</v>
@@ -3010,21 +3013,21 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
       <c r="B23" s="28" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="33">
         <f>C20*C17/C22</f>
-        <v>5.0624999999999997E-5</v>
+        <v>5.3915624999999997E-3</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="51"/>
       <c r="B24" s="21" t="s">
         <v>204</v>
@@ -3040,14 +3043,14 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="21" t="s">
         <v>232</v>
       </c>
       <c r="C25" s="30">
         <f>C24*C6*C17</f>
-        <v>182.59730775000003</v>
+        <v>19446.613275375006</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26" t="s">
@@ -3056,14 +3059,14 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
       <c r="B26" s="21" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="30">
         <f>C24*3600/1000*C17/C12/C13*C14</f>
-        <v>7.57440684</v>
+        <v>806.67432846000008</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
@@ -3072,7 +3075,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>182</v>
       </c>
@@ -3081,7 +3084,7 @@
       </c>
       <c r="C27" s="25">
         <f>C17*C2/1000</f>
-        <v>0.93</v>
+        <v>99.045000000000002</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25" t="s">
@@ -3092,14 +3095,14 @@
       </c>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
       <c r="B28" s="18" t="s">
         <v>184</v>
       </c>
       <c r="C28" s="25">
         <f>C17*C3/1000</f>
-        <v>0.03</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25" t="s">
@@ -3110,14 +3113,14 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
       <c r="B29" s="18" t="s">
         <v>185</v>
       </c>
       <c r="C29" s="35">
         <f>C23</f>
-        <v>5.0624999999999997E-5</v>
+        <v>5.3915624999999997E-3</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25" t="s">
@@ -3128,14 +3131,14 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
       <c r="B30" s="18" t="s">
         <v>192</v>
       </c>
       <c r="C30" s="29">
         <f>C26/1000</f>
-        <v>7.5744068399999998E-3</v>
+        <v>0.80667432846000009</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25" t="s">
@@ -3146,14 +3149,14 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="50"/>
       <c r="B31" s="18" t="s">
         <v>231</v>
       </c>
       <c r="C31" s="29">
         <f>C25/(10^6)</f>
-        <v>1.8259730775000002E-4</v>
+        <v>1.9446613275375006E-2</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25" t="s">
@@ -3164,14 +3167,14 @@
       </c>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="18" t="s">
         <v>228</v>
       </c>
       <c r="C32" s="29">
         <f>C27/C16</f>
-        <v>9.2999999999999999E-2</v>
+        <v>9.9045000000000005</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25" t="s">
@@ -3182,14 +3185,14 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="50"/>
       <c r="B33" s="18" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="29">
         <f>C4*C17/1000</f>
-        <v>0.03</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25" t="s">
@@ -3200,14 +3203,14 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="50"/>
       <c r="B34" s="18" t="s">
         <v>193</v>
       </c>
       <c r="C34" s="34">
         <f>C15*C7*C17/C22</f>
-        <v>-2.3948125649223825E-4</v>
+        <v>-2.5504753816423371E-2</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25" t="s">
@@ -3218,7 +3221,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="27"/>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Ecopulpers.xlsx
+++ b/CVX_Kenya/Interventions/Ecopulpers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BEE688-9DE8-40CB-A5CB-039C2B43F9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB93F5-F271-4DA9-9394-370B1E8F9014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,6 +1112,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,9 +1128,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2657,7 +2657,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,7 +2695,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="16" t="s">
         <v>173</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="16" t="s">
         <v>239</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="16" t="s">
         <v>189</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="36" t="s">
         <v>233</v>
       </c>
@@ -2776,7 +2776,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="16" t="s">
         <v>191</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="16" t="s">
         <v>194</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="16" t="s">
         <v>198</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="16" t="s">
         <v>201</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="16" t="s">
         <v>200</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="16" t="s">
         <v>207</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="16" t="s">
         <v>209</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="16" t="s">
         <v>210</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="16" t="s">
         <v>186</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="16" t="s">
         <v>226</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="B17" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="50">
         <v>639</v>
       </c>
       <c r="D17" s="42"/>
@@ -2937,7 +2937,7 @@
       <c r="G17" s="43"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="53" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2952,7 +2952,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="15" t="s">
         <v>188</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="15" t="s">
         <v>223</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -3000,7 +3000,7 @@
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="28" t="s">
         <v>224</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="28" t="s">
         <v>185</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="21" t="s">
         <v>204</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="21" t="s">
         <v>232</v>
       </c>
@@ -3060,7 +3060,7 @@
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="21" t="s">
         <v>206</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="51" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -3096,7 +3096,7 @@
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="18" t="s">
         <v>184</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="18" t="s">
         <v>185</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="18" t="s">
         <v>192</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="18" t="s">
         <v>231</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="18" t="s">
         <v>228</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="18" t="s">
         <v>240</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="18" t="s">
         <v>193</v>
       </c>
